--- a/inst/extdata/people.xlsx
+++ b/inst/extdata/people.xlsx
@@ -491,7 +491,7 @@
     <t xml:space="preserve">Potential for faecal sludge treatment with mycellium</t>
   </si>
   <si>
-    <t xml:space="preserve">1899-msc-thesis-145556</t>
+    <t xml:space="preserve">2024-msc-thesis-145556</t>
   </si>
   <si>
     <t xml:space="preserve">Modelling and Optimization of an Evaportator-dehumidifier unit</t>
@@ -1266,8 +1266,12 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14"/>
+      <c r="E14" s="1" t="n">
+        <v>44805</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2022</v>
+      </c>
       <c r="G14" t="s">
         <v>39</v>
       </c>
@@ -2674,8 +2678,12 @@
       <c r="D76" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="1"/>
-      <c r="F76"/>
+      <c r="E76" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2024</v>
+      </c>
       <c r="G76" t="s">
         <v>160</v>
       </c>

--- a/inst/extdata/people.xlsx
+++ b/inst/extdata/people.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
-  <si>
-    <t xml:space="preserve">project_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+  <si>
+    <t xml:space="preserve">title</t>
   </si>
   <si>
     <t xml:space="preserve">degree</t>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">thesis_title</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-bsc-thesis-141444</t>
+    <t xml:space="preserve">2021-bsc-thesis-225343</t>
   </si>
   <si>
     <t xml:space="preserve">bsc</t>
@@ -50,55 +50,145 @@
     <t xml:space="preserve">Self-cleaning Preliminary Screening Mechanisms to Improve Health and Wastewater Treatment Efficiency in Low-income Countries</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-565554</t>
+    <t xml:space="preserve">2021-msc-thesis-554324</t>
   </si>
   <si>
     <t xml:space="preserve">msc</t>
   </si>
   <si>
+    <t xml:space="preserve">Barriers to successful data management in the Global South: Case Study of Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-bsc-thesis-164543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The development of a recycled plastic wheel for cardboard collector trollies - improving the working conditions of informal cardboard recyclers in Durban, South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-bsc-thesis-161565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving market wash stations through creative and contextual design in Durban, South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-bsc-thesis-512155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility of waste maize husk valorization as a plastic plate replacement in Durban, South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-bsc-thesis-266112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-cost compost screening technology to improve trash separation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-544646</t>
+  </si>
+  <si>
     <t xml:space="preserve">sem-proj</t>
   </si>
   <si>
+    <t xml:space="preserve">Investigating the optimization potential of brick clamps in Malawi - thermal efficiency analysis and perspectives of brickmakers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-356661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy production of Black Soldier Fly larvae: measuring the temperature increase in air induced by Black Soldier Flies throughout their larval stages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-514134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examination of non-recycled marine plastic litter in order to identify recycling and beneficiation pathways in Durban, South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-166131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and validation of a thermal disinfection unit for wastewater using biogas for humanitarian crisis situations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-314142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and validation of a thermal disinfection unit for wastewater using biogas in humanitarian crisis situations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-212116</t>
+  </si>
+  <si>
     <t xml:space="preserve">The state of open research data publishing practices and policies in the fields of global health engineering</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-bsc-thesis-466263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility of waste maize husk valorization as a plastic plate replacement in Durban, South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-bsc-thesis-113514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low-cost compost screening technology to improve trash separation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-bsc-thesis-143566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The development of a recycled plastic wheel for cardboard collector trollies - improving the working conditions of informal cardboard recyclers in Durban, South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-thesis-146612</t>
+    <t xml:space="preserve">2022-msc-sem-proj-143563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing a small-scale screw press for blackwater dewatering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-316311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization of solid waste collections in Blantyre, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-112416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I have just accepted it”: Hierarchies of Power and Healthcare Waste Management Practices in Blantyre, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-522216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertiary education research: data collection on top universities of african countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-546443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bin it - design of an AHP waste collection model for informal settlements in South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-thesis-531332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal analysis and optimization potential of clamp kilns for fired clay brick production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-thesis-245413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating the potential Extended Producer Responsibility returns for plastic-packaging riverine waste in Durban, South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-thesis-333526</t>
   </si>
   <si>
     <t xml:space="preserve">Effect of fruit and vegetable waste in anaerobic digestion using faecal sludge as primary feedstock</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-616313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy production of Black Soldier Fly larvae: measuring the temperature increase in air induced by Black Soldier Flies throughout their larval stages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-thesis-615422</t>
+    <t xml:space="preserve">2022-msc-thesis-632542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical Modeling of SDG 6 Global Estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-thesis-632545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factors affecting the extent and impact of waste burning in Blantyre, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-thesis-621526</t>
   </si>
   <si>
     <t xml:space="preserve">Suitability of the modified Bardenpho process for faecal sludge treatment in Kumasi, Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-phd-thesis-454415</t>
+    <t xml:space="preserve">2022-phd-thesis-633533</t>
   </si>
   <si>
     <t xml:space="preserve">phd</t>
@@ -110,520 +200,629 @@
     <t xml:space="preserve">How biogas failed to light up a continent: why the most promising technology never spread across Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-456211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigating the optimization potential of brick clamps in Malawi - thermal efficiency analysis and perspectives of brickmakers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-sem-proj-263414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimization of solid waste collections in Blantyre, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-msc-thesis-415216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barriers to successful data management in the Global South: Case Study of Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-sem-proj-564164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designing a small-scale screw press for blackwater dewatering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-sem-proj-435513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design and validation of a thermal disinfection unit for wastewater using biogas in humanitarian crisis situations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-sem-proj-463655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examination of non-recycled marine plastic litter in order to identify recycling and beneficiation pathways in Durban, South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-sem-proj-441543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bin it - design of an AHP waste collection model for informal settlements in South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-phd-thesis-121533</t>
+    <t xml:space="preserve">2023-bsc-thesis-544115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental Optimization of a Peristaltic Pump Design for Pit-Emptying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-bsc-thesis-461331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation of the waste management system at the Züri Fäscht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-bsc-thesis-365433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing a manual press for blackwater dewatering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-bsc-thesis-665325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microcontroller Based Particulate Matter Monitors Utilising the Alphasense OPC-N3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-sem-proj-626425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate Matter, Health and Spaces of Risk within African Urban Areas: A Narrative Review of Literature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-sem-proj-252356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informal Waste Pickers and Non-Motorised Transport: A Narrative Review of Literature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-sem-proj-524426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urine Collection Trolley for Informal Markets in Durban, South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-644313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Monitoring System for the WaterWall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-135665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Establishment of an Absorbent Hygiene Product Waste Collection System in Two Informal Settlements in South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-136546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipping aid for loading small trucks on waste collection tours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-353422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willingness to Pay and Economic Feasibility for Waste Collection in Chembe, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-255125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detection of Contamination in Biowaste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-356435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-144435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste Characterisation and Quantification in Chembe, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-464465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorbent Hygiene Products (AHP) Waste Characterization and Collections Rationalization in South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-235415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization of Calcium Hydroxide and Calcium Phosphate flows in the Autarky Nutrient Harvester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-542534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of a Social Transfer Intervention on Barriers to Exclusive Breastfeeding in Lao PDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-521516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction of a Glass Crusher and Evaluation of Waste Valorization Pathways for Cape Maclear, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-432515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of a Low-Cost Incinerator in Cape Maclear, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-541166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving Ergonomics and Communication for the Sewer Workers of Zürich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-662223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste Logistics and Transport Modelling in Cape Maclear, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-msc-thesis-622154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design of an HDPE bottle collection and pre-cleaning system for recycling in Blantyre, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-staff-intern-523344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sustainable alternative to traditional building materials: assessing stabilised soil blocks for performance and cost in Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-staff-intern-224166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-staff-intern-135565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-351216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovative Mask Design for Air Pollution Impact Mitigation in Blantyre, Malawi: A Particle Size Distribution Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-335314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of a Monitoring Device for Improved Cookstoves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-443663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing a Methane Sensor for Biogas reactors in Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-213322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization of waste skip placement in Blantyre, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-314546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Grid Trash Screen Design for a Fecal Sludge Treatment Plant in Blantyre, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-524322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examination of the potential for recycling of absorbent hygiene product waste in South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-136454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapting open-source turbidity sensor for enhanced dewatering of blackwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-124523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidelines for Low-Cost Incineration Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-514114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design optimisation of a mixing reactor for close to source urine stabilisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-444646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casing design, manufacturing and testing for in-situ biogas monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-413111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing the accuracy of the smart biogas measurement device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-412211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumetric flow meter development for household scale biogas reactors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-452233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging and transmitting remote data from cookstove and biogas sensors in Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-354365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelling and Optimization of an Evaportator-dehumidifier unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-staff-hiwi-434426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-staff-intern-334424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-staff-intern-462424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-staff-hiwi-323454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-staff-scientific-assistant-135461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientific-assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine vision for river waste identification in South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-staff-scientific-assistant-424241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-554161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design of a Bio-gas powered effluent pasteurizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-256233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring Injection Molding for the Development of a Sensor Casings in Biogas Monitoring System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-536563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand Compactor Design for Informal Cardboard Recycling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-463316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effluent flow meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-314516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advancing Sustainable Water Filtration: Enhancing Efficiency and Exploring New Adaptations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-352213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establishing the HDPE recycling process in Blantyre, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-115154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploratory analysis of the booking system in Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-151215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sludge pasteurization with solar water heaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-staff-hiwi-412154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogas in malawi- DSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-phd-thesis-313531</t>
   </si>
   <si>
     <t xml:space="preserve">Evaluating a case of closed-loop plastic recycling in Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-phd-thesis-314652</t>
+    <t xml:space="preserve">2022-phd-thesis-356556</t>
   </si>
   <si>
     <t xml:space="preserve">Extent and markers of open waste burning</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-thesis-546221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistical Modeling of SDG 6 Global Estimates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-sem-proj-262551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“I have just accepted it”: Hierarchies of Power and Healthcare Waste Management Practices in Blantyre, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-thesis-516521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermal analysis and optimization potential of clamp kilns for fired clay brick production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-thesis-341414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluating the potential Extended Producer Responsibility returns for plastic-packaging riverine waste in Durban, South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-bsc-thesis-321454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improving market wash stations through creative and contextual design in Durban, South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-thesis-155353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factors affecting the extent and impact of waste burning in Blantyre, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-sem-proj-566634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design and validation of a thermal disinfection unit for wastewater using biogas for humanitarian crisis situations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-sem-proj-211566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertiary education research: data collection on top universities of african countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-staff-intern-365245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sustainable alternative to traditional building materials: assessing stabilised soil blocks for performance and cost in Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-sem-proj-625163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urine Collection Trolley for Informal Markets in Durban, South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-515651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detection of Contamination in Biowaste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-bsc-thesis-555321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation of the waste management system at the Züri Fäscht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-111425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipping aid for loading small trucks on waste collection tours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-341154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design of an HDPE bottle collection and pre-cleaning system for recycling in Blantyre, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-256151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remote Monitoring System for the WaterWall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-566423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimization of Calcium Hydroxide and Calcium Phosphate flows in the Autarky Nutrient Harvester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-534445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">withdrawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-staff-intern-512651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-staff-scientific-assistant-351554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scientific-assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-bsc-thesis-111146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experimental Optimization of a Peristaltic Pump Design for Pit-Emptying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-443226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction of a Glass Crusher and Evaluation of Waste Valorization Pathways for Cape Maclear, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-bsc-thesis-353526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designing a manual press for blackwater dewatering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-645462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development of a Low-Cost Incinerator in Cape Maclear, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-bsc-thesis-463134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microcontroller Based Particulate Matter Monitors Utilising the Alphasense OPC-N3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-461522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Establishment of an Absorbent Hygiene Product Waste Collection System in Two Informal Settlements in South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-444115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absorbent Hygiene Products (AHP) Waste Characterization and Collections Rationalization in South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-553346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willingness to Pay and Economic Feasibility for Waste Collection in Chembe, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-522612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste Characterisation and Quantification in Chembe, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-166133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improving Ergonomics and Communication for the Sewer Workers of Zürich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-532416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste Logistics and Transport Modelling in Cape Maclear, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-thesis-466523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact of a Social Transfer Intervention on Barriers to Exclusive Breastfeeding in Lao PDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-staff-post-doc-432213</t>
+    <t xml:space="preserve">2023-staff-post-doc-225634</t>
   </si>
   <si>
     <t xml:space="preserve">post-doc</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-staff-intern-545321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-staff-intern-546612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-project-133241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informal Waste Pickers and Non-Motorised Transport: A Narrative Review of Literature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-msc-project-465145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate Matter, Health and Spaces of Risk within African Urban Areas: A Narrative Review of Literature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-625412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimization of waste skip placement in Blantyre, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-616441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapting open-source turbidity sensor for enhanced dewatering of blackwater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-652443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advancing Sustainable Water Filtration: Enhancing Efficiency and Exploring New Adaptations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-231451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guidelines for Low-Cost Incineration Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-523145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploratory analysis of the booking system in Kampala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-661656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Grid Trash Screen Design for a Fecal Sludge Treatment Plant in Blantyre, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-626331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hand Compactor Design for Informal Cardboard Recycling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-staff-intern-516631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-665454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sludge pasteurization with solar water heaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-422125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development of a Monitoring Device for Improved Cookstoves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-566626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developing a Methane Sensor for Biogas reactors in Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-244643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volumetric flow meter development for household scale biogas reactors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-126461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logging and transmitting remote data from cookstove and biogas sensors in Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-362265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing the accuracy of the smart biogas measurement device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-532435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovative Mask Design for Air Pollution Impact Mitigation in Blantyre, Malawi: A Particle Size Distribution Approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-365134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establishing the HDPE recycling process in Blantyre, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine vision for river waste identification in South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-221261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design of a Bio-gas powered effluent pasteurizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-461264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design optimisation of a mixing reactor for close to source urine stabilisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-phd-thesis-665422</t>
+    <t xml:space="preserve">2024-bsc-thesis-433535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring of improved cookstoves: from prototyping to small batch manufacturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-166143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design of a Sanitation System for Female Vendors in Warwick Junction in SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-241454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature Review on Feasibility of Manufacturing Low-cost Black Carbon Monitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-255556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life Cycle Analysis of biogas digesters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-144432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of PLA-based Membranes Undergoing Mechanical Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-sem-proj-226321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of Hydrogen Sulfide on Biogas Burning and Removal Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-552446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drip irrigation feasibility study for Cape Maclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-134554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaborative toilet design, manufacturing, and testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-113436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving the solar sludge pasteurization technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-313553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogas sensor development: from prototyping to production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-136663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing and Improving Plastic Wool Extrusion System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-256665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimating uncertainty in past biogas offsett projects and methodologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-624125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasibility Study of Modular Water Filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-146441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air quality monitoring from open waste burning and incinerator burning in Cape Maclear, Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-msc-thesis-664561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model and visualization of recyclable material collection network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-phd-thesis-613365</t>
   </si>
   <si>
     <t xml:space="preserve">Potential for faecal sludge treatment with mycellium</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-145556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelling and Optimization of an Evaportator-dehumidifier unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-staff-hiwi-551256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-515363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biogas sensor development: from prototyping to production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-staff-scientific-assistant-534661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-staff-hiwi-125616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-251646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air quality monitoring from open waste burning and incinerator burning in Cape Maclear, Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-624636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casing design, manufacturing and testing for in-situ biogas monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-616113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design a urine diverter for a container based toilet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-125114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring of improved cookstoves: from prototyping to small batch manufacturing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-524454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improving the solar sludge pasteurization technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-315513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing and improving an existing medium-size incineration technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-362516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collaborative toilet design, manufacturing, and testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-436246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimating uncertainty in past biogas offsett projects and methodologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-321251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life Cycle Analysis of biogas digesters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-124255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDPE and PET property testing with physical, chemical, and biological contamination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-225662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model and visualization of recyclable material collection network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-434332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absorbent Hygiene Products processing and recycling: literature review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-311256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drip irrigation feasibility study for Cape Maclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-131441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literature Review on Feasibility of Manufacturing Low-cost Black Carbon Monitors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-525332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis of PLA-based Membranes Undergoing Mechanical Processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-thesis-246322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing and Development of Adaptable Water Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-354425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact of hydrogen sulfide on biogas burning and removal evaluation</t>
+    <t xml:space="preserve">2025-bsc-thesis-443623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow rate monitor for pediatric intravenous fluid delivery in humanitarian settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-bsc-thesis-631362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Soldier Fly degutting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-bsc-thesis-444254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeatible Fecal Sludge Spreading on Petri Dishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-bsc-thesis-226543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advancements for Menstrual blood Management in reduced gravITY (AMMITY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-sem-proj-323446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart biogas sensor testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-sem-proj-352655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review of Low-cost Plastic Separation Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-sem-proj-366622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFD for biogas burner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-345646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So Long, Sharp Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-655656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development and Testing of New Control Schemes for an Electrical Load Cabinet for Small Health Posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-144634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development and Testing of a Bidirectional Charger for Heath Facility Energy Provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-552326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sludge pasteurization with solar water heaters - system optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-422224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote communications infrastructure for an off-grid energy system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-323241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Plan Development for Waste Management System in Cape Maclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-322515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of a preference elicitation framework for health providers’ energy preferences and finding optimal critical load sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-125553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of a Low-Cost Multiple-Wavelength Black Carbon Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-522464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset Creation on the Energy Characteristics of Healthcare Appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-case-study-361263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case-study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The role of language and its implications on extending colonialism and hindering cross-cultural cooperation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-mob-student-622264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidline to Injection Molding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-556456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black soldier fly larvae counting: hardware &amp; software development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-564235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic for recycling cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-463453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power quality and reliability database of Malawi’s healthcare facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-132155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical device database for Malawi’s healthcare facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-bsc-thesis-314445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFID solution for e-bike charging in Nairobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-staff-intern-365363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated mycelium growth detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-staff-intern-445314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-sem-proj-421264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life Cycle Assessment of the biogas monitoring technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-staff-scientific-assistant-335532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-661611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design, Numerical Optimization and Implementation of a Sludge Pasteurization System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-case-study-533334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indigenous food production in Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-phd-thesis-261544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment of Biogas effluent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-151453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic sorting in Blantyre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -660,7 +859,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,24 +1207,24 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>44458</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>44655</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1037,18 +1236,18 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44631</v>
+        <v>44645</v>
       </c>
       <c r="F4" t="n">
         <v>2022</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1060,18 +1259,18 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>44621</v>
+        <v>44805</v>
       </c>
       <c r="F5" t="n">
         <v>2022</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1083,21 +1282,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>44645</v>
+        <v>44631</v>
       </c>
       <c r="F6" t="n">
         <v>2022</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1106,30 +1305,30 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="F7" t="n">
         <v>2022</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>44599</v>
+        <v>44725</v>
       </c>
       <c r="F8" t="n">
         <v>2022</v>
@@ -1146,13 +1345,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>44652</v>
+        <v>44599</v>
       </c>
       <c r="F9" t="n">
         <v>2022</v>
@@ -1166,102 +1365,102 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>44613</v>
+        <v>44774</v>
       </c>
       <c r="F10" t="n">
         <v>2022</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>44725</v>
+        <v>44820</v>
       </c>
       <c r="F11" t="n">
         <v>2022</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>44820</v>
+        <v>44682</v>
       </c>
       <c r="F12" t="n">
         <v>2022</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>44458</v>
+        <v>44655</v>
       </c>
       <c r="F13" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1273,127 +1472,127 @@
         <v>2022</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>44682</v>
+        <v>44820</v>
       </c>
       <c r="F15" t="n">
         <v>2022</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="F16" t="n">
         <v>2022</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>44835</v>
+        <v>44881</v>
       </c>
       <c r="F17" t="n">
         <v>2022</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>44613</v>
+        <v>44835</v>
       </c>
       <c r="F18" t="n">
         <v>2022</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>44586</v>
+        <v>44820</v>
       </c>
       <c r="F19" t="n">
         <v>2022</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -1405,41 +1604,41 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>44713</v>
+        <v>44774</v>
       </c>
       <c r="F20" t="n">
         <v>2022</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>44835</v>
+        <v>44682</v>
       </c>
       <c r="F21" t="n">
         <v>2022</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1451,18 +1650,18 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>44820</v>
+        <v>44713</v>
       </c>
       <c r="F22" t="n">
         <v>2022</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1474,21 +1673,21 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="F23" t="n">
         <v>2022</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1497,30 +1696,30 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>44805</v>
+        <v>44652</v>
       </c>
       <c r="F24" t="n">
         <v>2022</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
       <c r="E25" s="1" t="n">
-        <v>44835</v>
+        <v>44613</v>
       </c>
       <c r="F25" t="n">
         <v>2022</v>
@@ -1534,19 +1733,19 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>44820</v>
+        <v>45187</v>
       </c>
       <c r="F26" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
@@ -1557,19 +1756,19 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>44881</v>
+        <v>44977</v>
       </c>
       <c r="F27" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G27" t="s">
         <v>65</v>
@@ -1580,119 +1779,119 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>44927</v>
+        <v>45187</v>
       </c>
       <c r="F28" t="n">
         <v>2023</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>44986</v>
+        <v>45187</v>
       </c>
       <c r="F29" t="n">
         <v>2023</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>44986</v>
+        <v>45200</v>
       </c>
       <c r="F30" t="n">
         <v>2023</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>44977</v>
+        <v>45200</v>
       </c>
       <c r="F31" t="n">
         <v>2023</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>45001</v>
+        <v>44986</v>
       </c>
       <c r="F32" t="n">
         <v>2023</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -1704,18 +1903,18 @@
         <v>10</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>44986</v>
+        <v>44930</v>
       </c>
       <c r="F33" t="n">
         <v>2023</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -1727,18 +1926,18 @@
         <v>10</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>44930</v>
+        <v>45201</v>
       </c>
       <c r="F34" t="n">
         <v>2023</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -1750,18 +1949,18 @@
         <v>10</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>45038</v>
+        <v>45001</v>
       </c>
       <c r="F35" t="n">
         <v>2023</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -1773,63 +1972,67 @@
         <v>10</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>45055</v>
+        <v>45201</v>
       </c>
       <c r="F36" t="n">
         <v>2023</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>45061</v>
+        <v>44986</v>
       </c>
       <c r="F37" t="n">
         <v>2023</v>
       </c>
-      <c r="G37"/>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>45047</v>
+        <v>45055</v>
       </c>
       <c r="F38" t="n">
         <v>2023</v>
       </c>
-      <c r="G38"/>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -1838,18 +2041,18 @@
         <v>10</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>45187</v>
+        <v>45201</v>
       </c>
       <c r="F39" t="n">
         <v>2023</v>
       </c>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -1861,21 +2064,21 @@
         <v>10</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>45187</v>
+        <v>44958</v>
       </c>
       <c r="F40" t="n">
         <v>2023</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -1884,18 +2087,18 @@
         <v>10</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>45187</v>
+        <v>45038</v>
       </c>
       <c r="F41" t="n">
         <v>2023</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
@@ -1907,21 +2110,21 @@
         <v>10</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>45187</v>
+        <v>45209</v>
       </c>
       <c r="F42" t="n">
         <v>2023</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -1936,12 +2139,12 @@
         <v>2023</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -1953,18 +2156,18 @@
         <v>10</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>45201</v>
+        <v>45187</v>
       </c>
       <c r="F44" t="n">
         <v>2023</v>
       </c>
       <c r="G44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -1976,18 +2179,18 @@
         <v>10</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>44958</v>
+        <v>45194</v>
       </c>
       <c r="F45" t="n">
         <v>2023</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -2005,12 +2208,12 @@
         <v>2023</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -2022,225 +2225,227 @@
         <v>10</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>45201</v>
+        <v>44986</v>
       </c>
       <c r="F47" t="n">
         <v>2023</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
         <v>107</v>
       </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>45194</v>
+        <v>44927</v>
       </c>
       <c r="F48" t="n">
         <v>2023</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>45201</v>
+        <v>45061</v>
       </c>
       <c r="F49" t="n">
         <v>2023</v>
       </c>
-      <c r="G49" t="s">
-        <v>110</v>
-      </c>
+      <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>45209</v>
+        <v>45216</v>
       </c>
       <c r="F50" t="n">
         <v>2023</v>
       </c>
-      <c r="G50" t="s">
-        <v>112</v>
-      </c>
+      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>45355</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G51" t="s">
         <v>113</v>
       </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>45200</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2023</v>
-      </c>
-      <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>45355</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G52" t="s">
         <v>115</v>
       </c>
-      <c r="B52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>45216</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2023</v>
-      </c>
-      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>45306</v>
+        <v>45355</v>
       </c>
       <c r="F53" t="n">
         <v>2024</v>
       </c>
-      <c r="G53"/>
+      <c r="G53" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>45200</v>
+        <v>45348</v>
       </c>
       <c r="F54" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>45200</v>
+        <v>45334</v>
       </c>
       <c r="F55" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>45348</v>
+        <v>45558</v>
       </c>
       <c r="F56" t="n">
         <v>2024</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -2252,148 +2457,150 @@
         <v>2024</v>
       </c>
       <c r="G57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>45366</v>
+        <v>45352</v>
       </c>
       <c r="F58" t="n">
         <v>2024</v>
       </c>
       <c r="G58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>45352</v>
+        <v>45391</v>
       </c>
       <c r="F59" t="n">
         <v>2024</v>
       </c>
       <c r="G59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>45383</v>
+        <v>45502</v>
       </c>
       <c r="F60" t="n">
         <v>2024</v>
       </c>
       <c r="G60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>45334</v>
+        <v>45355</v>
       </c>
       <c r="F61" t="n">
         <v>2024</v>
       </c>
       <c r="G61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>45349</v>
+        <v>45355</v>
       </c>
       <c r="F62" t="n">
         <v>2024</v>
       </c>
       <c r="G62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="F63" t="n">
         <v>2024</v>
       </c>
-      <c r="G63"/>
+      <c r="G63" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
@@ -2405,200 +2612,188 @@
         <v>10</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>45362</v>
+        <v>45383</v>
       </c>
       <c r="F64" t="n">
         <v>2024</v>
       </c>
       <c r="G64" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>45355</v>
+        <v>45474</v>
       </c>
       <c r="F65" t="n">
         <v>2024</v>
       </c>
-      <c r="G65" t="s">
-        <v>139</v>
-      </c>
+      <c r="G65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>45355</v>
+        <v>45352</v>
       </c>
       <c r="F66" t="n">
         <v>2024</v>
       </c>
-      <c r="G66" t="s">
-        <v>141</v>
-      </c>
+      <c r="G66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>45355</v>
+        <v>45306</v>
       </c>
       <c r="F67" t="n">
         <v>2024</v>
       </c>
-      <c r="G67" t="s">
-        <v>143</v>
-      </c>
+      <c r="G67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>45355</v>
+        <v>45488</v>
       </c>
       <c r="F68" t="n">
         <v>2024</v>
       </c>
-      <c r="G68" t="s">
-        <v>145</v>
-      </c>
+      <c r="G68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
         <v>146</v>
       </c>
-      <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>45355</v>
+        <v>45495</v>
       </c>
       <c r="F69" t="n">
         <v>2024</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69"/>
+    </row>
+    <row r="70">
+      <c r="A70"/>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G70" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>148</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>45355</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G70" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>45369</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G72" t="s">
         <v>150</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>45362</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G71" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72"/>
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>45348</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G72" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -2610,64 +2805,64 @@
         <v>10</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>45369</v>
+        <v>45551</v>
       </c>
       <c r="F73" t="n">
         <v>2024</v>
       </c>
       <c r="G73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>45391</v>
+        <v>45349</v>
       </c>
       <c r="F74" t="n">
         <v>2024</v>
       </c>
       <c r="G74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="F75" t="n">
         <v>2024</v>
       </c>
       <c r="G75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -2679,39 +2874,41 @@
         <v>10</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>45474</v>
+        <v>45366</v>
       </c>
       <c r="F76" t="n">
         <v>2024</v>
       </c>
       <c r="G76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>45474</v>
+        <v>45362</v>
       </c>
       <c r="F77" t="n">
         <v>2024</v>
       </c>
-      <c r="G77"/>
+      <c r="G77" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -2723,75 +2920,79 @@
         <v>10</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>45549</v>
+        <v>45383</v>
       </c>
       <c r="F78" t="n">
         <v>2024</v>
       </c>
       <c r="G78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>45495</v>
+        <v>45362</v>
       </c>
       <c r="F79" t="n">
         <v>2024</v>
       </c>
-      <c r="G79"/>
+      <c r="G79" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G80" t="s">
         <v>166</v>
       </c>
-      <c r="B80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>45488</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>45551</v>
+        <v>44613</v>
       </c>
       <c r="F81" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G81" t="s">
         <v>168</v>
@@ -2802,19 +3003,19 @@
         <v>169</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>45502</v>
+        <v>44586</v>
       </c>
       <c r="F82" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G82" t="s">
         <v>170</v>
@@ -2825,23 +3026,21 @@
         <v>171</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>45566</v>
+        <v>45200</v>
       </c>
       <c r="F83" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G83" t="s">
-        <v>172</v>
-      </c>
+        <v>2023</v>
+      </c>
+      <c r="G83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -2871,7 +3070,7 @@
         <v>175</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -2880,7 +3079,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>45551</v>
+        <v>45636</v>
       </c>
       <c r="F85" t="n">
         <v>2024</v>
@@ -2897,13 +3096,13 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>45523</v>
+        <v>45565</v>
       </c>
       <c r="F86" t="n">
         <v>2024</v>
@@ -2920,13 +3119,13 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>45566</v>
+        <v>45558</v>
       </c>
       <c r="F87" t="n">
         <v>2024</v>
@@ -2943,13 +3142,13 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="F88" t="n">
         <v>2024</v>
@@ -2966,13 +3165,13 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>45558</v>
+        <v>45587</v>
       </c>
       <c r="F89" t="n">
         <v>2024</v>
@@ -2986,7 +3185,7 @@
         <v>185</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -2995,7 +3194,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>45551</v>
+        <v>45558</v>
       </c>
       <c r="F90" t="n">
         <v>2024</v>
@@ -3018,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>45557</v>
+        <v>45566</v>
       </c>
       <c r="F91" t="n">
         <v>2024</v>
@@ -3035,13 +3234,13 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="F92" t="n">
         <v>2024</v>
@@ -3064,7 +3263,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>45558</v>
+        <v>45549</v>
       </c>
       <c r="F93" t="n">
         <v>2024</v>
@@ -3081,13 +3280,13 @@
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>45565</v>
+        <v>45523</v>
       </c>
       <c r="F94" t="n">
         <v>2024</v>
@@ -3104,13 +3303,13 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>45569</v>
+        <v>45566</v>
       </c>
       <c r="F95" t="n">
         <v>2024</v>
@@ -3150,19 +3349,774 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>45587</v>
+        <v>45551</v>
       </c>
       <c r="F97" t="n">
         <v>2024</v>
       </c>
       <c r="G97" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>45557</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>60</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>45712</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>45714</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G101" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>45705</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G102" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>45705</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G103" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>45712</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G104" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>45705</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G105" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>45705</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G106" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>45705</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G107" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>45705</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G108" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>45672</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G109" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>45740</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G110" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>45705</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G111" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>45705</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G112" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>45698</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G113" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>45698</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G114" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>45719</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G115" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" t="s">
+        <v>242</v>
+      </c>
+      <c r="D117" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>45712</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G117" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>244</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>45719</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G118" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>246</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G119" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>248</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G120" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G121" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>252</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>45719</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G122" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>254</v>
+      </c>
+      <c r="B123" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" t="s">
+        <v>60</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>45726</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G123" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" t="s">
+        <v>107</v>
+      </c>
+      <c r="C124" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" t="s">
+        <v>60</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>45754</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G125" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>259</v>
+      </c>
+      <c r="B126" t="s">
+        <v>107</v>
+      </c>
+      <c r="C126" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126" t="s">
+        <v>60</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>45743</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>238</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>45743</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G128" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>60</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G129" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="1" t="n">
+        <v>45784</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G130" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/people.xlsx
+++ b/inst/extdata/people.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">thesis_title</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-bsc-thesis-225343</t>
+    <t xml:space="preserve">2021-bsc-thesis-141444</t>
   </si>
   <si>
     <t xml:space="preserve">bsc</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Self-cleaning Preliminary Screening Mechanisms to Improve Health and Wastewater Treatment Efficiency in Low-income Countries</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-msc-thesis-554324</t>
+    <t xml:space="preserve">2021-msc-thesis-565554</t>
   </si>
   <si>
     <t xml:space="preserve">msc</t>
@@ -59,31 +59,31 @@
     <t xml:space="preserve">Barriers to successful data management in the Global South: Case Study of Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-bsc-thesis-164543</t>
+    <t xml:space="preserve">2022-bsc-thesis-466263</t>
   </si>
   <si>
     <t xml:space="preserve">The development of a recycled plastic wheel for cardboard collector trollies - improving the working conditions of informal cardboard recyclers in Durban, South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-bsc-thesis-161565</t>
+    <t xml:space="preserve">2022-bsc-thesis-113514</t>
   </si>
   <si>
     <t xml:space="preserve">Improving market wash stations through creative and contextual design in Durban, South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-bsc-thesis-512155</t>
+    <t xml:space="preserve">2022-bsc-thesis-143566</t>
   </si>
   <si>
     <t xml:space="preserve">Feasibility of waste maize husk valorization as a plastic plate replacement in Durban, South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-bsc-thesis-266112</t>
+    <t xml:space="preserve">2022-bsc-thesis-146612</t>
   </si>
   <si>
     <t xml:space="preserve">Low-cost compost screening technology to improve trash separation</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-544646</t>
+    <t xml:space="preserve">2022-msc-sem-proj-616313</t>
   </si>
   <si>
     <t xml:space="preserve">sem-proj</t>
@@ -92,103 +92,103 @@
     <t xml:space="preserve">Investigating the optimization potential of brick clamps in Malawi - thermal efficiency analysis and perspectives of brickmakers</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-356661</t>
+    <t xml:space="preserve">2022-msc-sem-proj-615422</t>
   </si>
   <si>
     <t xml:space="preserve">Energy production of Black Soldier Fly larvae: measuring the temperature increase in air induced by Black Soldier Flies throughout their larval stages</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-514134</t>
+    <t xml:space="preserve">2022-msc-sem-proj-454415</t>
   </si>
   <si>
     <t xml:space="preserve">Examination of non-recycled marine plastic litter in order to identify recycling and beneficiation pathways in Durban, South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-166131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design and validation of a thermal disinfection unit for wastewater using biogas for humanitarian crisis situations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-msc-sem-proj-314142</t>
+    <t xml:space="preserve">2022-msc-sem-proj-456211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humanitarian Sanitation Solution: Design and validation of a thermal disinfection unit for wastewater using biogas for humanitarian crisis situations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-msc-sem-proj-263414</t>
   </si>
   <si>
     <t xml:space="preserve">Design and validation of a thermal disinfection unit for wastewater using biogas in humanitarian crisis situations</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-212116</t>
+    <t xml:space="preserve">2022-msc-sem-proj-415216</t>
   </si>
   <si>
     <t xml:space="preserve">The state of open research data publishing practices and policies in the fields of global health engineering</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-143563</t>
+    <t xml:space="preserve">2022-msc-sem-proj-564164</t>
   </si>
   <si>
     <t xml:space="preserve">Designing a small-scale screw press for blackwater dewatering</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-316311</t>
+    <t xml:space="preserve">2022-msc-sem-proj-435513</t>
   </si>
   <si>
     <t xml:space="preserve">Optimization of solid waste collections in Blantyre, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-112416</t>
+    <t xml:space="preserve">2022-msc-sem-proj-463655</t>
   </si>
   <si>
     <t xml:space="preserve">“I have just accepted it”: Hierarchies of Power and Healthcare Waste Management Practices in Blantyre, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-522216</t>
+    <t xml:space="preserve">2022-msc-sem-proj-441543</t>
   </si>
   <si>
     <t xml:space="preserve">Tertiary education research: data collection on top universities of african countries</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-sem-proj-546443</t>
+    <t xml:space="preserve">2022-msc-sem-proj-121533</t>
   </si>
   <si>
     <t xml:space="preserve">Bin it - design of an AHP waste collection model for informal settlements in South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-thesis-531332</t>
+    <t xml:space="preserve">2022-msc-thesis-314652</t>
   </si>
   <si>
     <t xml:space="preserve">Thermal analysis and optimization potential of clamp kilns for fired clay brick production</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-thesis-245413</t>
+    <t xml:space="preserve">2022-msc-thesis-546221</t>
   </si>
   <si>
     <t xml:space="preserve">Evaluating the potential Extended Producer Responsibility returns for plastic-packaging riverine waste in Durban, South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-thesis-333526</t>
+    <t xml:space="preserve">2022-msc-thesis-262551</t>
   </si>
   <si>
     <t xml:space="preserve">Effect of fruit and vegetable waste in anaerobic digestion using faecal sludge as primary feedstock</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-thesis-632542</t>
+    <t xml:space="preserve">2022-msc-thesis-516521</t>
   </si>
   <si>
     <t xml:space="preserve">Statistical Modeling of SDG 6 Global Estimates</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-thesis-632545</t>
+    <t xml:space="preserve">2022-msc-thesis-341414</t>
   </si>
   <si>
     <t xml:space="preserve">Factors affecting the extent and impact of waste burning in Blantyre, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-msc-thesis-621526</t>
+    <t xml:space="preserve">2022-msc-thesis-321454</t>
   </si>
   <si>
     <t xml:space="preserve">Suitability of the modified Bardenpho process for faecal sludge treatment in Kumasi, Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-phd-thesis-633533</t>
+    <t xml:space="preserve">2022-phd-thesis-155353</t>
   </si>
   <si>
     <t xml:space="preserve">phd</t>
@@ -200,139 +200,139 @@
     <t xml:space="preserve">How biogas failed to light up a continent: why the most promising technology never spread across Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-bsc-thesis-544115</t>
+    <t xml:space="preserve">2023-bsc-thesis-566634</t>
   </si>
   <si>
     <t xml:space="preserve">Experimental Optimization of a Peristaltic Pump Design for Pit-Emptying</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-bsc-thesis-461331</t>
+    <t xml:space="preserve">2023-bsc-thesis-211566</t>
   </si>
   <si>
     <t xml:space="preserve">Evaluation of the waste management system at the Züri Fäscht</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-bsc-thesis-365433</t>
+    <t xml:space="preserve">2023-bsc-thesis-365245</t>
   </si>
   <si>
     <t xml:space="preserve">Designing a manual press for blackwater dewatering</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-bsc-thesis-665325</t>
+    <t xml:space="preserve">2023-bsc-thesis-625163</t>
   </si>
   <si>
     <t xml:space="preserve">Microcontroller Based Particulate Matter Monitors Utilising the Alphasense OPC-N3</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-sem-proj-626425</t>
+    <t xml:space="preserve">2023-msc-sem-proj-515651</t>
   </si>
   <si>
     <t xml:space="preserve">Particulate Matter, Health and Spaces of Risk within African Urban Areas: A Narrative Review of Literature</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-sem-proj-252356</t>
+    <t xml:space="preserve">2023-msc-sem-proj-555321</t>
   </si>
   <si>
     <t xml:space="preserve">Informal Waste Pickers and Non-Motorised Transport: A Narrative Review of Literature</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-sem-proj-524426</t>
+    <t xml:space="preserve">2023-msc-sem-proj-111425</t>
   </si>
   <si>
     <t xml:space="preserve">Urine Collection Trolley for Informal Markets in Durban, South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-644313</t>
+    <t xml:space="preserve">2023-msc-thesis-341154</t>
   </si>
   <si>
     <t xml:space="preserve">Remote Monitoring System for the WaterWall</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-135665</t>
+    <t xml:space="preserve">2023-msc-thesis-256151</t>
   </si>
   <si>
     <t xml:space="preserve">The Establishment of an Absorbent Hygiene Product Waste Collection System in Two Informal Settlements in South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-136546</t>
+    <t xml:space="preserve">2023-msc-thesis-566423</t>
   </si>
   <si>
     <t xml:space="preserve">Tipping aid for loading small trucks on waste collection tours</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-353422</t>
+    <t xml:space="preserve">2023-msc-thesis-534445</t>
   </si>
   <si>
     <t xml:space="preserve">Willingness to Pay and Economic Feasibility for Waste Collection in Chembe, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-255125</t>
+    <t xml:space="preserve">2023-msc-thesis-512651</t>
   </si>
   <si>
     <t xml:space="preserve">Detection of Contamination in Biowaste</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-356435</t>
+    <t xml:space="preserve">2023-msc-thesis-351554</t>
   </si>
   <si>
     <t xml:space="preserve">withdrawn</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-144435</t>
+    <t xml:space="preserve">2023-msc-thesis-111146</t>
   </si>
   <si>
     <t xml:space="preserve">Waste Characterisation and Quantification in Chembe, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-464465</t>
+    <t xml:space="preserve">2023-msc-thesis-443226</t>
   </si>
   <si>
     <t xml:space="preserve">Absorbent Hygiene Products (AHP) Waste Characterization and Collections Rationalization in South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-235415</t>
+    <t xml:space="preserve">2023-msc-thesis-353526</t>
   </si>
   <si>
     <t xml:space="preserve">Optimization of Calcium Hydroxide and Calcium Phosphate flows in the Autarky Nutrient Harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-542534</t>
+    <t xml:space="preserve">2023-msc-thesis-645462</t>
   </si>
   <si>
     <t xml:space="preserve">Impact of a Social Transfer Intervention on Barriers to Exclusive Breastfeeding in Lao PDR</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-521516</t>
+    <t xml:space="preserve">2023-msc-thesis-463134</t>
   </si>
   <si>
     <t xml:space="preserve">Construction of a Glass Crusher and Evaluation of Waste Valorization Pathways for Cape Maclear, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-432515</t>
+    <t xml:space="preserve">2023-msc-thesis-461522</t>
   </si>
   <si>
     <t xml:space="preserve">Development of a Low-Cost Incinerator in Cape Maclear, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-541166</t>
+    <t xml:space="preserve">2023-msc-thesis-444115</t>
   </si>
   <si>
     <t xml:space="preserve">Improving Ergonomics and Communication for the Sewer Workers of Zürich</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-662223</t>
+    <t xml:space="preserve">2023-msc-thesis-553346</t>
   </si>
   <si>
     <t xml:space="preserve">Waste Logistics and Transport Modelling in Cape Maclear, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-msc-thesis-622154</t>
+    <t xml:space="preserve">2023-msc-thesis-522612</t>
   </si>
   <si>
     <t xml:space="preserve">Design of an HDPE bottle collection and pre-cleaning system for recycling in Blantyre, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-staff-intern-523344</t>
+    <t xml:space="preserve">2023-staff-intern-166133</t>
   </si>
   <si>
     <t xml:space="preserve">staff</t>
@@ -344,112 +344,112 @@
     <t xml:space="preserve">A sustainable alternative to traditional building materials: assessing stabilised soil blocks for performance and cost in Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-staff-intern-224166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-staff-intern-135565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-351216</t>
+    <t xml:space="preserve">2023-staff-intern-532416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-staff-intern-466523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-432213</t>
   </si>
   <si>
     <t xml:space="preserve">Innovative Mask Design for Air Pollution Impact Mitigation in Blantyre, Malawi: A Particle Size Distribution Approach</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-bsc-thesis-335314</t>
+    <t xml:space="preserve">2024-bsc-thesis-545321</t>
   </si>
   <si>
     <t xml:space="preserve">Development of a Monitoring Device for Improved Cookstoves</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-bsc-thesis-443663</t>
+    <t xml:space="preserve">2024-bsc-thesis-546612</t>
   </si>
   <si>
     <t xml:space="preserve">Developing a Methane Sensor for Biogas reactors in Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-bsc-thesis-213322</t>
+    <t xml:space="preserve">2024-bsc-thesis-133241</t>
   </si>
   <si>
     <t xml:space="preserve">Optimization of waste skip placement in Blantyre, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-bsc-thesis-314546</t>
+    <t xml:space="preserve">2024-bsc-thesis-465145</t>
   </si>
   <si>
     <t xml:space="preserve">Off-Grid Trash Screen Design for a Fecal Sludge Treatment Plant in Blantyre, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-524322</t>
+    <t xml:space="preserve">2024-msc-sem-proj-625412</t>
   </si>
   <si>
     <t xml:space="preserve">Examination of the potential for recycling of absorbent hygiene product waste in South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-136454</t>
+    <t xml:space="preserve">2024-msc-sem-proj-616441</t>
   </si>
   <si>
     <t xml:space="preserve">Adapting open-source turbidity sensor for enhanced dewatering of blackwater</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-124523</t>
+    <t xml:space="preserve">2024-msc-sem-proj-652443</t>
   </si>
   <si>
     <t xml:space="preserve">Guidelines for Low-Cost Incineration Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-514114</t>
+    <t xml:space="preserve">2024-msc-sem-proj-231451</t>
   </si>
   <si>
     <t xml:space="preserve">Design optimisation of a mixing reactor for close to source urine stabilisation</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-444646</t>
+    <t xml:space="preserve">2024-msc-sem-proj-523145</t>
   </si>
   <si>
     <t xml:space="preserve">Casing design, manufacturing and testing for in-situ biogas monitoring</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-413111</t>
+    <t xml:space="preserve">2024-msc-sem-proj-661656</t>
   </si>
   <si>
     <t xml:space="preserve">Testing the accuracy of the smart biogas measurement device</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-412211</t>
+    <t xml:space="preserve">2024-msc-sem-proj-626331</t>
   </si>
   <si>
     <t xml:space="preserve">Volumetric flow meter development for household scale biogas reactors</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-452233</t>
+    <t xml:space="preserve">2024-msc-sem-proj-516631</t>
   </si>
   <si>
     <t xml:space="preserve">Logging and transmitting remote data from cookstove and biogas sensors in Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-354365</t>
+    <t xml:space="preserve">2024-msc-thesis-665454</t>
   </si>
   <si>
     <t xml:space="preserve">Modelling and Optimization of an Evaportator-dehumidifier unit</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-staff-hiwi-434426</t>
+    <t xml:space="preserve">2024-staff-hiwi-422125</t>
   </si>
   <si>
     <t xml:space="preserve">hiwi</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-staff-intern-334424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-staff-intern-462424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-staff-hiwi-323454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-staff-scientific-assistant-135461</t>
+    <t xml:space="preserve">2024-staff-intern-566626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-staff-intern-244643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-staff-hiwi-126461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-staff-scientific-assistant-362265</t>
   </si>
   <si>
     <t xml:space="preserve">scientific-assistant</t>
@@ -458,274 +458,259 @@
     <t xml:space="preserve">Machine vision for river waste identification in South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-staff-scientific-assistant-424241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-554161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design of a Bio-gas powered effluent pasteurizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-bsc-thesis-256233</t>
+    <t xml:space="preserve">2023-staff-scientific-assistant-365134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-624165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design of a Biogas powered effluent pasteurizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-bsc-thesis-221261</t>
   </si>
   <si>
     <t xml:space="preserve">Exploring Injection Molding for the Development of a Sensor Casings in Biogas Monitoring System</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-bsc-thesis-536563</t>
+    <t xml:space="preserve">2024-bsc-thesis-461264</t>
   </si>
   <si>
     <t xml:space="preserve">Hand Compactor Design for Informal Cardboard Recycling</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-bsc-thesis-463316</t>
+    <t xml:space="preserve">2024-bsc-thesis-665422</t>
   </si>
   <si>
     <t xml:space="preserve">Effluent flow meter</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-314516</t>
+    <t xml:space="preserve">2024-msc-thesis-145556</t>
   </si>
   <si>
     <t xml:space="preserve">Advancing Sustainable Water Filtration: Enhancing Efficiency and Exploring New Adaptations</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-352213</t>
+    <t xml:space="preserve">2024-msc-thesis-551256</t>
   </si>
   <si>
     <t xml:space="preserve">Establishing the HDPE recycling process in Blantyre, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-115154</t>
+    <t xml:space="preserve">2024-msc-thesis-515363</t>
   </si>
   <si>
     <t xml:space="preserve">Exploratory analysis of the booking system in Kampala</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-151215</t>
+    <t xml:space="preserve">2024-msc-thesis-534661</t>
   </si>
   <si>
     <t xml:space="preserve">Sludge pasteurization with solar water heaters</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-staff-hiwi-412154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biogas in malawi- DSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-phd-thesis-313531</t>
+    <t xml:space="preserve">2024-staff-hiwi-125616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-phd-thesis-251646</t>
   </si>
   <si>
     <t xml:space="preserve">Evaluating a case of closed-loop plastic recycling in Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-phd-thesis-356556</t>
+    <t xml:space="preserve">2022-phd-thesis-624636</t>
   </si>
   <si>
     <t xml:space="preserve">Extent and markers of open waste burning</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-staff-post-doc-225634</t>
+    <t xml:space="preserve">2023-staff-post-doc-616113</t>
   </si>
   <si>
     <t xml:space="preserve">post-doc</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-bsc-thesis-433535</t>
+    <t xml:space="preserve">2024-bsc-thesis-125114</t>
   </si>
   <si>
     <t xml:space="preserve">Monitoring of improved cookstoves: from prototyping to small batch manufacturing</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-bsc-thesis-166143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design of a Sanitation System for Female Vendors in Warwick Junction in SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-msc-sem-proj-241454</t>
+    <t xml:space="preserve">2024-msc-sem-proj-524454</t>
   </si>
   <si>
     <t xml:space="preserve">Literature Review on Feasibility of Manufacturing Low-cost Black Carbon Monitors</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-255556</t>
+    <t xml:space="preserve">2024-msc-sem-proj-315513</t>
   </si>
   <si>
     <t xml:space="preserve">Life Cycle Analysis of biogas digesters</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-144432</t>
+    <t xml:space="preserve">2024-msc-sem-proj-362516</t>
   </si>
   <si>
     <t xml:space="preserve">Analysis of PLA-based Membranes Undergoing Mechanical Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-sem-proj-226321</t>
+    <t xml:space="preserve">2024-msc-sem-proj-436246</t>
   </si>
   <si>
     <t xml:space="preserve">Impact of Hydrogen Sulfide on Biogas Burning and Removal Evaluation</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-552446</t>
+    <t xml:space="preserve">2024-msc-thesis-321251</t>
   </si>
   <si>
     <t xml:space="preserve">Drip irrigation feasibility study for Cape Maclear</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-134554</t>
+    <t xml:space="preserve">2024-msc-thesis-124255</t>
   </si>
   <si>
     <t xml:space="preserve">Collaborative toilet design, manufacturing, and testing</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-113436</t>
+    <t xml:space="preserve">2024-msc-thesis-225662</t>
   </si>
   <si>
     <t xml:space="preserve">Improving the solar sludge pasteurization technology</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-313553</t>
+    <t xml:space="preserve">2024-msc-thesis-434332</t>
   </si>
   <si>
     <t xml:space="preserve">Biogas sensor development: from prototyping to production</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-136663</t>
+    <t xml:space="preserve">2024-msc-thesis-311256</t>
   </si>
   <si>
     <t xml:space="preserve">Testing and Improving Plastic Wool Extrusion System</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-256665</t>
+    <t xml:space="preserve">2024-msc-thesis-131441</t>
   </si>
   <si>
     <t xml:space="preserve">Estimating uncertainty in past biogas offsett projects and methodologies</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-624125</t>
+    <t xml:space="preserve">2024-msc-thesis-525332</t>
   </si>
   <si>
     <t xml:space="preserve">Feasibility Study of Modular Water Filters</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-146441</t>
+    <t xml:space="preserve">2024-msc-thesis-246322</t>
   </si>
   <si>
     <t xml:space="preserve">Air quality monitoring from open waste burning and incinerator burning in Cape Maclear, Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-msc-thesis-664561</t>
+    <t xml:space="preserve">2024-msc-thesis-354425</t>
   </si>
   <si>
     <t xml:space="preserve">Model and visualization of recyclable material collection network</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-phd-thesis-613365</t>
+    <t xml:space="preserve">2024-phd-thesis-154321</t>
   </si>
   <si>
     <t xml:space="preserve">Potential for faecal sludge treatment with mycellium</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-bsc-thesis-443623</t>
+    <t xml:space="preserve">2025-bsc-thesis-222425</t>
   </si>
   <si>
     <t xml:space="preserve">Flow rate monitor for pediatric intravenous fluid delivery in humanitarian settings</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-bsc-thesis-631362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Soldier Fly degutting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-bsc-thesis-444254</t>
+    <t xml:space="preserve">2025-bsc-thesis-525162</t>
   </si>
   <si>
     <t xml:space="preserve">Repeatible Fecal Sludge Spreading on Petri Dishes</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-bsc-thesis-226543</t>
+    <t xml:space="preserve">2025-bsc-thesis-322163</t>
   </si>
   <si>
     <t xml:space="preserve">Advancements for Menstrual blood Management in reduced gravITY (AMMITY)</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-sem-proj-323446</t>
+    <t xml:space="preserve">2025-msc-sem-proj-525566</t>
   </si>
   <si>
     <t xml:space="preserve">Smart biogas sensor testing</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-sem-proj-352655</t>
+    <t xml:space="preserve">2025-msc-sem-proj-144643</t>
   </si>
   <si>
     <t xml:space="preserve">Review of Low-cost Plastic Separation Technologies</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-sem-proj-366622</t>
+    <t xml:space="preserve">2025-msc-sem-proj-224115</t>
   </si>
   <si>
     <t xml:space="preserve">CFD for biogas burner</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-345646</t>
+    <t xml:space="preserve">2025-msc-thesis-432451</t>
   </si>
   <si>
     <t xml:space="preserve">So Long, Sharp Glass</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-655656</t>
+    <t xml:space="preserve">2025-msc-thesis-165636</t>
   </si>
   <si>
     <t xml:space="preserve">Development and Testing of New Control Schemes for an Electrical Load Cabinet for Small Health Posts</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-144634</t>
+    <t xml:space="preserve">2025-msc-thesis-644261</t>
   </si>
   <si>
     <t xml:space="preserve">Development and Testing of a Bidirectional Charger for Heath Facility Energy Provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-552326</t>
+    <t xml:space="preserve">2025-msc-thesis-521625</t>
   </si>
   <si>
     <t xml:space="preserve">Sludge pasteurization with solar water heaters - system optimization</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-422224</t>
+    <t xml:space="preserve">2025-msc-thesis-225161</t>
   </si>
   <si>
     <t xml:space="preserve">Remote communications infrastructure for an off-grid energy system</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-323241</t>
+    <t xml:space="preserve">2025-msc-thesis-415432</t>
   </si>
   <si>
     <t xml:space="preserve">Business Plan Development for Waste Management System in Cape Maclear</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-322515</t>
+    <t xml:space="preserve">2025-msc-thesis-531316</t>
   </si>
   <si>
     <t xml:space="preserve">Development of a preference elicitation framework for health providers’ energy preferences and finding optimal critical load sets</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-125553</t>
+    <t xml:space="preserve">2025-msc-thesis-235213</t>
   </si>
   <si>
     <t xml:space="preserve">Development of a Low-Cost Multiple-Wavelength Black Carbon Monitor</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-522464</t>
+    <t xml:space="preserve">2025-msc-thesis-632161</t>
   </si>
   <si>
     <t xml:space="preserve">Dataset Creation on the Energy Characteristics of Healthcare Appointments</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-case-study-361263</t>
+    <t xml:space="preserve">2025-msc-case-study-413534</t>
   </si>
   <si>
     <t xml:space="preserve">case-study</t>
@@ -734,7 +719,7 @@
     <t xml:space="preserve">The role of language and its implications on extending colonialism and hindering cross-cultural cooperation.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-mob-student-622264</t>
+    <t xml:space="preserve">2025-mob-student-323134</t>
   </si>
   <si>
     <t xml:space="preserve">mob</t>
@@ -746,76 +731,103 @@
     <t xml:space="preserve">Guidline to Injection Molding</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-556456</t>
+    <t xml:space="preserve">2025-msc-thesis-335155</t>
   </si>
   <si>
     <t xml:space="preserve">Black soldier fly larvae counting: hardware &amp; software development</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-564235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastic for recycling cleaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-msc-thesis-463453</t>
+    <t xml:space="preserve">2025-msc-thesis-233552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaning Plastic for Recycling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-531634</t>
   </si>
   <si>
     <t xml:space="preserve">Power quality and reliability database of Malawi’s healthcare facilities</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-132155</t>
+    <t xml:space="preserve">2025-msc-thesis-563116</t>
   </si>
   <si>
     <t xml:space="preserve">Medical device database for Malawi’s healthcare facilities</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-bsc-thesis-314445</t>
+    <t xml:space="preserve">2025-bsc-thesis-336642</t>
   </si>
   <si>
     <t xml:space="preserve">RFID solution for e-bike charging in Nairobi</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-staff-intern-365363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated mycelium growth detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-staff-intern-445314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-msc-sem-proj-421264</t>
+    <t xml:space="preserve">2025-staff-intern-362422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software development for remote sensors and data logging to cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-staff-intern-116231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-sem-proj-322235</t>
   </si>
   <si>
     <t xml:space="preserve">Life Cycle Assessment of the biogas monitoring technologies</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-staff-scientific-assistant-335532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-msc-thesis-661611</t>
+    <t xml:space="preserve">2025-staff-scientific-assistant-515255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-134361</t>
   </si>
   <si>
     <t xml:space="preserve">Design, Numerical Optimization and Implementation of a Sludge Pasteurization System</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-case-study-533334</t>
+    <t xml:space="preserve">2025-msc-case-study-254435</t>
   </si>
   <si>
     <t xml:space="preserve">Indigenous food production in Puerto Rico</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-phd-thesis-261544</t>
+    <t xml:space="preserve">2025-phd-thesis-162131</t>
   </si>
   <si>
     <t xml:space="preserve">Treatment of Biogas effluent</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-msc-thesis-151453</t>
+    <t xml:space="preserve">2025-msc-thesis-122665</t>
   </si>
   <si>
     <t xml:space="preserve">Plastic sorting in Blantyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-staff-scientific-assistant-445136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-staff-scientific-assistant-453552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-staff-scientific-assistant-225343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-bsc-thesis-554324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision seeder and fertilizer dispenser (post-PDED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-bsc-thesis-164543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-bsc-thesis-161565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-msc-thesis-512155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas and liquid flow measurements and control with ultrasound</t>
   </si>
 </sst>
 </file>
@@ -2971,13 +2983,11 @@
       <c r="F80" t="n">
         <v>2024</v>
       </c>
-      <c r="G80" t="s">
-        <v>166</v>
-      </c>
+      <c r="G80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
         <v>59</v>
@@ -2995,12 +3005,12 @@
         <v>2022</v>
       </c>
       <c r="G81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
         <v>59</v>
@@ -3018,18 +3028,18 @@
         <v>2022</v>
       </c>
       <c r="G82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
         <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" t="s">
         <v>60</v>
@@ -3044,7 +3054,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -3062,35 +3072,35 @@
         <v>2024</v>
       </c>
       <c r="G84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>45565</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G85" t="s">
         <v>175</v>
-      </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>45636</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G85" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
@@ -3102,18 +3112,18 @@
         <v>10</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="F86" t="n">
         <v>2024</v>
       </c>
       <c r="G86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
@@ -3125,18 +3135,18 @@
         <v>10</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>45558</v>
+        <v>45569</v>
       </c>
       <c r="F87" t="n">
         <v>2024</v>
       </c>
       <c r="G87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
@@ -3148,271 +3158,271 @@
         <v>10</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>45569</v>
+        <v>45587</v>
       </c>
       <c r="F88" t="n">
         <v>2024</v>
       </c>
       <c r="G88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>45558</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G89" t="s">
         <v>183</v>
-      </c>
-      <c r="B89" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>45587</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G89" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G90" t="s">
         <v>185</v>
-      </c>
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>45558</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G90" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>45551</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G91" t="s">
         <v>187</v>
-      </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G91" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>45549</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G92" t="s">
         <v>189</v>
-      </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G92" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>45523</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G93" t="s">
         <v>191</v>
-      </c>
-      <c r="B93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>45549</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G93" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G94" t="s">
         <v>193</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>45523</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G94" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>45586</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G95" t="s">
         <v>195</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G95" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>45551</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G96" t="s">
         <v>197</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>45586</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G96" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>45557</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G97" t="s">
         <v>199</v>
-      </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G97" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G98" t="s">
         <v>201</v>
-      </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>45557</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G98" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>45712</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G99" t="s">
         <v>203</v>
-      </c>
-      <c r="B99" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" t="s">
-        <v>60</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>45474</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G99" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -3424,18 +3434,18 @@
         <v>10</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>45712</v>
+        <v>45705</v>
       </c>
       <c r="F100" t="n">
         <v>2025</v>
       </c>
       <c r="G100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -3447,47 +3457,47 @@
         <v>10</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>45714</v>
+        <v>45705</v>
       </c>
       <c r="F101" t="n">
         <v>2025</v>
       </c>
       <c r="G101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="F102" t="n">
         <v>2025</v>
       </c>
       <c r="G102" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
@@ -3499,12 +3509,12 @@
         <v>2025</v>
       </c>
       <c r="G103" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
@@ -3516,24 +3526,24 @@
         <v>10</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>45712</v>
+        <v>45705</v>
       </c>
       <c r="F104" t="n">
         <v>2025</v>
       </c>
       <c r="G104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
         <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -3545,18 +3555,18 @@
         <v>2025</v>
       </c>
       <c r="G105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -3568,12 +3578,12 @@
         <v>2025</v>
       </c>
       <c r="G106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
@@ -3585,18 +3595,18 @@
         <v>10</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>45705</v>
+        <v>45672</v>
       </c>
       <c r="F107" t="n">
         <v>2025</v>
       </c>
       <c r="G107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
@@ -3608,18 +3618,18 @@
         <v>10</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>45705</v>
+        <v>45740</v>
       </c>
       <c r="F108" t="n">
         <v>2025</v>
       </c>
       <c r="G108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
         <v>13</v>
@@ -3631,18 +3641,18 @@
         <v>10</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>45672</v>
+        <v>45705</v>
       </c>
       <c r="F109" t="n">
         <v>2025</v>
       </c>
       <c r="G109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B110" t="s">
         <v>13</v>
@@ -3654,18 +3664,18 @@
         <v>10</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>45740</v>
+        <v>45705</v>
       </c>
       <c r="F110" t="n">
         <v>2025</v>
       </c>
       <c r="G110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B111" t="s">
         <v>13</v>
@@ -3677,18 +3687,18 @@
         <v>10</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>45705</v>
+        <v>45698</v>
       </c>
       <c r="F111" t="n">
         <v>2025</v>
       </c>
       <c r="G111" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B112" t="s">
         <v>13</v>
@@ -3700,18 +3710,18 @@
         <v>10</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>45705</v>
+        <v>45698</v>
       </c>
       <c r="F112" t="n">
         <v>2025</v>
       </c>
       <c r="G112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B113" t="s">
         <v>13</v>
@@ -3723,30 +3733,30 @@
         <v>10</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>45698</v>
+        <v>45719</v>
       </c>
       <c r="F113" t="n">
         <v>2025</v>
       </c>
       <c r="G113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
         <v>233</v>
       </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
       <c r="D114" t="s">
         <v>10</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>45698</v>
+        <v>45667</v>
       </c>
       <c r="F114" t="n">
         <v>2025</v>
@@ -3760,73 +3770,73 @@
         <v>235</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>45719</v>
+        <v>45712</v>
       </c>
       <c r="F115" t="n">
         <v>2025</v>
       </c>
       <c r="G115" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B116" t="s">
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
         <v>10</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>45667</v>
+        <v>45719</v>
       </c>
       <c r="F116" t="n">
         <v>2025</v>
       </c>
       <c r="G116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B117" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>45712</v>
+        <v>45748</v>
       </c>
       <c r="F117" t="n">
         <v>2025</v>
       </c>
       <c r="G117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B118" t="s">
         <v>13</v>
@@ -3838,18 +3848,18 @@
         <v>10</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>45719</v>
+        <v>45809</v>
       </c>
       <c r="F118" t="n">
         <v>2025</v>
       </c>
       <c r="G118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
@@ -3861,21 +3871,21 @@
         <v>10</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="F119" t="n">
         <v>2025</v>
       </c>
       <c r="G119" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -3884,99 +3894,97 @@
         <v>10</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>45809</v>
+        <v>45719</v>
       </c>
       <c r="F120" t="n">
         <v>2025</v>
       </c>
       <c r="G120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>45809</v>
+        <v>45726</v>
       </c>
       <c r="F121" t="n">
         <v>2025</v>
       </c>
       <c r="G121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>45719</v>
+        <v>45717</v>
       </c>
       <c r="F122" t="n">
         <v>2025</v>
       </c>
-      <c r="G122" t="s">
-        <v>253</v>
-      </c>
+      <c r="G122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B123" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>45726</v>
+        <v>45754</v>
       </c>
       <c r="F123" t="n">
         <v>2025</v>
       </c>
       <c r="G123" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B124" t="s">
         <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="D124" t="s">
         <v>60</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="F124" t="n">
         <v>2025</v>
@@ -3985,138 +3993,249 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>45754</v>
+        <v>45743</v>
       </c>
       <c r="F125" t="n">
         <v>2025</v>
       </c>
       <c r="G125" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B126" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F126" t="n">
         <v>2025</v>
       </c>
-      <c r="G126"/>
+      <c r="G126" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>45743</v>
+        <v>45748</v>
       </c>
       <c r="F127" t="n">
         <v>2025</v>
       </c>
       <c r="G127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>45743</v>
+        <v>45784</v>
       </c>
       <c r="F128" t="n">
         <v>2025</v>
       </c>
       <c r="G128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B129" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D129" t="s">
         <v>60</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>45748</v>
+        <v>45796</v>
       </c>
       <c r="F129" t="n">
         <v>2025</v>
       </c>
-      <c r="G129" t="s">
-        <v>265</v>
-      </c>
+      <c r="G129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>45784</v>
+        <v>45809</v>
       </c>
       <c r="F130" t="n">
         <v>2025</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" t="s">
+        <v>146</v>
+      </c>
+      <c r="D131" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>45922</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G132" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>268</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>45936</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>45922</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G135" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
